--- a/Burn-up table.xlsx
+++ b/Burn-up table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16980" windowHeight="10350" activeTab="1"/>
+    <workbookView windowWidth="16980" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,13 +30,13 @@
     <t>Week4</t>
   </si>
   <si>
-    <t>Week5</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
     <t>Complete</t>
+  </si>
+  <si>
+    <t>Week5</t>
   </si>
   <si>
     <t>left</t>
@@ -47,10 +47,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -62,7 +62,97 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -77,7 +167,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -93,51 +183,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,58 +198,12 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -211,6 +211,96 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -220,13 +310,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -238,6 +364,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -250,151 +388,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,17 +408,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -448,16 +457,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,24 +505,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -513,145 +513,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -836,9 +836,6 @@
                 <c:pt idx="4">
                   <c:v>Week4</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>Week5</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -859,6 +856,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -926,9 +926,6 @@
                 <c:pt idx="4">
                   <c:v>Week4</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>Week5</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -949,6 +946,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3018,18 +3018,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="A1:G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="2" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="2:6">
       <c r="B1">
         <v>0</v>
       </c>
@@ -3045,13 +3045,10 @@
       <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>5</v>
       </c>
       <c r="B2">
         <v>41</v>
@@ -3065,10 +3062,13 @@
       <c r="E2">
         <v>55</v>
       </c>
+      <c r="F2">
+        <v>31</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3081,6 +3081,9 @@
       </c>
       <c r="E3">
         <v>19</v>
+      </c>
+      <c r="F3">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -3095,7 +3098,7 @@
   <sheetPr/>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
@@ -3118,7 +3121,7 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3140,7 +3143,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>41</v>
@@ -3157,7 +3160,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>0</v>
